--- a/template_examples/wes_fastq_template.xlsx
+++ b/template_examples/wes_fastq_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D062EF8-EFD7-A546-8136-1EEA9D316E3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73F63A5-AF6D-284C-BAC0-EB353864FD73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7880" yWindow="5000" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7880" yWindow="5000" windowWidth="21500" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WES" sheetId="1" r:id="rId1"/>
@@ -401,16 +401,16 @@
     <t>CTTTPP121.00</t>
   </si>
   <si>
-    <t>/local/path/to/fwd.1.1.1.fastq.gz</t>
-  </si>
-  <si>
-    <t>/local/path/to/fwd.1.2.1.fastq.gz</t>
-  </si>
-  <si>
     <t>/local/path/to/rev.1.1.1.fastq.gz</t>
   </si>
   <si>
     <t>/local/path/to/rev.1.2.1.fastq.gz</t>
+  </si>
+  <si>
+    <t>/local/path/to/fwd.1.1.1.fastq.gz,/local/path/to/fwd.1.1.1_2.fastq.gz</t>
+  </si>
+  <si>
+    <t>/local/path/to/fwd.1.2.1.fastq.gz,/local/path/to/fwd.1.2.1_2.fastq.gz</t>
   </si>
 </sst>
 </file>
@@ -869,7 +869,7 @@
   <dimension ref="A1:F212"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1039,10 +1039,10 @@
         <v>64</v>
       </c>
       <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
         <v>66</v>
-      </c>
-      <c r="D13" t="s">
-        <v>68</v>
       </c>
       <c r="E13" s="5">
         <v>40179</v>
@@ -1059,10 +1059,10 @@
         <v>65</v>
       </c>
       <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
         <v>67</v>
-      </c>
-      <c r="D14" t="s">
-        <v>69</v>
       </c>
       <c r="E14" s="5">
         <v>40179</v>

--- a/template_examples/wes_fastq_template.xlsx
+++ b/template_examples/wes_fastq_template.xlsx
@@ -598,7 +598,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>#t</t>
+          <t>#title</t>
         </is>
       </c>
       <c r="B1" s="6" t="inlineStr">
@@ -614,7 +614,7 @@
     <row r="2" ht="16" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -634,7 +634,7 @@
     <row r="3" ht="16" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
     <row r="4" ht="32" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="5" ht="16" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -694,7 +694,7 @@
     <row r="6" ht="16" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -714,7 +714,7 @@
     <row r="7" ht="16" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
     <row r="8" ht="16" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="9" ht="16" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>#mh</t>
+          <t>#skip</t>
         </is>
       </c>
       <c r="B11" s="6" t="inlineStr">
@@ -789,7 +789,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>#h</t>
+          <t>#header</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -821,7 +821,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -849,7 +849,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -877,1386 +877,1386 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>

--- a/template_examples/wes_fastq_template.xlsx
+++ b/template_examples/wes_fastq_template.xlsx
@@ -591,7 +591,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col hidden="1" min="1" max="1"/>
+    <col hidden="1" width="30" customWidth="1" min="1" max="1"/>
     <col width="30.6640625" customWidth="1" min="2" max="101"/>
   </cols>
   <sheetData>
@@ -769,7 +769,6 @@
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
     </row>
-    <row r="10"/>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
@@ -2299,7 +2298,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="B1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2307,6 +2306,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
     <col width="30.6640625" customWidth="1" min="2" max="101"/>
   </cols>
   <sheetData>
@@ -2615,7 +2615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="B1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2623,6 +2623,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
     <col width="30.6640625" customWidth="1" min="2" max="101"/>
   </cols>
   <sheetData>

--- a/template_examples/wes_fastq_template.xlsx
+++ b/template_examples/wes_fastq_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/VSCodeProjects/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B954165-64E9-4244-A624-4C649A9547B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83963DAC-896F-474A-B35A-66B796B07292}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="2380" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,10 +529,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -874,7 +874,7 @@
   <dimension ref="A1:F2012"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:F14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -886,10 +886,10 @@
       <c r="A1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="5"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -976,20 +976,20 @@
         <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1024,7 +1024,7 @@
       <c r="D13" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>40179</v>
       </c>
       <c r="F13">
@@ -1044,7 +1044,7 @@
       <c r="D14" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>40179</v>
       </c>
       <c r="F14">

--- a/template_examples/wes_fastq_template.xlsx
+++ b/template_examples/wes_fastq_template.xlsx
@@ -216,7 +216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2133" uniqueCount="90">
   <si>
     <t xml:space="preserve">#title</t>
   </si>
@@ -330,6 +330,33 @@
   </si>
   <si>
     <t xml:space="preserve">/local/path/to/rev.1.2.1_2.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTTTPP122.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/fwd.1.2.2.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/rev.1.2.2.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTTTPP123.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/fwd.1.2.3.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/rev.1.2.3.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTTTPP124.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/fwd.1.2.4.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/rev.1.2.4.fastq.gz</t>
   </si>
   <si>
     <t xml:space="preserve">LEGEND</t>
@@ -469,7 +496,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -499,12 +526,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -619,7 +640,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -706,11 +727,11 @@
   </sheetPr>
   <dimension ref="A1:G2012"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="1" style="0" width="30.7"/>
   </cols>
@@ -940,19 +961,73 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="4" t="n">
+        <v>40179</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>40179</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>27</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="4" t="n">
+        <v>40179</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10926,7 +11001,7 @@
     <mergeCell ref="B11:G11"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation allowBlank="true" error="Please enter date in format mm/dd/yyyy" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F17:F2012" type="custom">
+    <dataValidation allowBlank="true" error="Please enter date in format mm/dd/yyyy" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F20:F2012" type="custom">
       <formula1>AND(ISNUMBER(F13:F2012),LEFT(CELL("format",F13:F2012),1)="D")</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -10973,19 +11048,19 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="6" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10993,10 +11068,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11004,13 +11079,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11018,13 +11093,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11032,13 +11107,13 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11046,13 +11121,13 @@
         <v>11</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11060,13 +11135,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11074,10 +11149,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11085,18 +11160,18 @@
         <v>16</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11104,13 +11179,13 @@
         <v>21</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11118,7 +11193,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11126,10 +11201,10 @@
         <v>23</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11137,10 +11212,10 @@
         <v>24</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11148,10 +11223,10 @@
         <v>25</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11159,10 +11234,10 @@
         <v>26</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -11188,7 +11263,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.7"/>
   </cols>
@@ -11215,7 +11290,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>8</v>
@@ -11224,7 +11299,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>14</v>
@@ -11238,54 +11313,54 @@
         <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E6" s="0" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E7" s="0" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/template_examples/wes_fastq_template.xlsx
+++ b/template_examples/wes_fastq_template.xlsx
@@ -216,7 +216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="135">
   <si>
     <t xml:space="preserve">#title</t>
   </si>
@@ -302,36 +302,6 @@
     <t xml:space="preserve">#data</t>
   </si>
   <si>
-    <t xml:space="preserve">CTTTPP111.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/fwd.1.1.1.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/rev.1.1.1.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTTTPP121.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/fwd.1.2.1.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/rev.1.2.1.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/fwd.1.1.1_2.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/rev.1.1.1_2.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/fwd.1.2.1_2.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/rev.1.2.1_2.fastq.gz</t>
-  </si>
-  <si>
     <t xml:space="preserve">CTTTPP122.00</t>
   </si>
   <si>
@@ -348,6 +318,18 @@
   </si>
   <si>
     <t xml:space="preserve">/local/path/to/rev.1.2.3.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/fwd.1.2.2_2.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/rev.1.2.2_2.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/fwd.1.2.3_2.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/rev.1.2.3_2.fastq.gz</t>
   </si>
   <si>
     <t xml:space="preserve">CTTTPP124.00</t>
@@ -881,10 +863,10 @@
   <dimension ref="A1:G2013"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.30859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.31640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="1" style="0" width="30.7"/>
   </cols>
@@ -1022,7 +1004,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>27</v>
       </c>
@@ -1045,7 +1027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>27</v>
       </c>
@@ -1068,7 +1050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>27</v>
       </c>
@@ -1091,7 +1073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>27</v>
       </c>
@@ -1114,7 +1096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>27</v>
       </c>
@@ -1137,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>27</v>
       </c>
@@ -1160,7 +1142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>27</v>
       </c>
@@ -1183,7 +1165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>27</v>
       </c>
@@ -1206,7 +1188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>27</v>
       </c>
@@ -1229,7 +1211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>27</v>
       </c>
@@ -1252,7 +1234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>27</v>
       </c>
@@ -1275,7 +1257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>27</v>
       </c>
@@ -1298,7 +1280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>27</v>
       </c>
@@ -1321,7 +1303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>27</v>
       </c>
@@ -1344,7 +1326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>27</v>
       </c>
@@ -1367,7 +1349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>27</v>
       </c>
@@ -1390,49 +1372,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" s="5" t="s">
         <v>76</v>
       </c>
       <c r="F29" s="4" t="n">
         <v>40179</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="G29" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" s="5" t="s">
         <v>79</v>
       </c>
       <c r="F30" s="4" t="n">
         <v>40179</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="G30" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1532,49 +1514,13 @@
       <c r="A35" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F35" s="4" t="n">
-        <v>40179</v>
-      </c>
-      <c r="G35" s="5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F36" s="4" t="n">
-        <v>40179</v>
-      </c>
-      <c r="G36" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>27</v>
       </c>
@@ -11485,7 +11431,7 @@
       <formula1>"Paired,Single"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Please enter date in format mm/dd/yyyy" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F37:F2013" type="custom">
+    <dataValidation allowBlank="true" error="Please enter date in format mm/dd/yyyy" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F38:F2013" type="custom">
       <formula1>AND(ISNUMBER(F27:F2026),LEFT(CELL("format",F27:F2026),1)="D")</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -11512,19 +11458,19 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.30859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.31640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11532,10 +11478,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11543,13 +11489,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11557,13 +11503,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11571,13 +11517,13 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>102</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11585,13 +11531,13 @@
         <v>11</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11599,13 +11545,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11613,10 +11559,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11624,18 +11570,18 @@
         <v>16</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11643,13 +11589,13 @@
         <v>21</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11657,7 +11603,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11665,10 +11611,10 @@
         <v>23</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11676,10 +11622,10 @@
         <v>24</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11687,10 +11633,10 @@
         <v>25</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11698,10 +11644,10 @@
         <v>26</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -11727,7 +11673,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.30859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.31640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.7"/>
   </cols>
@@ -11754,7 +11700,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>8</v>
@@ -11763,7 +11709,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>14</v>
@@ -11777,54 +11723,54 @@
         <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E6" s="0" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E7" s="0" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/template_examples/wes_fastq_template.xlsx
+++ b/template_examples/wes_fastq_template.xlsx
@@ -236,354 +236,357 @@
     <t xml:space="preserve">Assay creator</t>
   </si>
   <si>
+    <t xml:space="preserve">MD Anderson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequencing protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Express Somatic Human WES (Deep Coverage) v1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Library kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyper Prep ICE Exome Express: 1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequencer platform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illumina - NextSeq 550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paired end reads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paired</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bait set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whole_exome_illumina_coding_v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#skip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cimac id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forward fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse fastq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequencing date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quality flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTTTPP122.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/fwd.1.2.2.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/rev.1.2.2.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTTTPP123.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/fwd.1.2.3.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/rev.1.2.3.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/fwd.1.2.2_2.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/rev.1.2.2_2.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/fwd.1.2.3_2.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/rev.1.2.3_2.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTTTPP124.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/fwd.1.2.4.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/rev.1.2.4.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTTTPP211.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/fwd.2.1.1.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/rev.2.1.1.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTTTPP212.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/fwd.2.1.2.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/rev.2.1.2.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTTTPP213.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/fwd.2.1.3.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/rev.2.1.3.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTTTPP214.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/fwd.2.1.4.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/rev.2.1.4.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTTTPP311.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/fwd.3.1.1.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/rev.3.1.1.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTTTPP312.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/fwd.3.1.2.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/rev.3.1.2.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTTTPP313.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/fwd.3.1.3.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/rev.3.1.3.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTTTPP411.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/fwd.4.1.1.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/rev.4.1.1.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTTTPP412.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/fwd.4.1.2.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/rev.4.1.2.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTTTPP413.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/fwd.4.1.3.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/rev.4.1.3.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTTTPP511.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/fwd.5.1.1.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/rev.5.1.1.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTTTPP512.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/fwd.5.1.2.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/rev.5.1.2.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTTTPP513.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/fwd.5.1.3.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/rev.5.1.3.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTTTPP514.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/fwd.5.1.4.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/rev.5.1.4.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTTTPP515.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/fwd.5.1.5.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/rev.5.1.5.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTTTPP516.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/fwd.5.1.6.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/rev.5.1.6.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTTTPP517.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/fwd.5.1.7.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/rev.5.1.7.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEGEND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legend for tab 'WES'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trial identifier used by lead organization, ie. Center for Experimental Therapeutics Program (CTEP) ID or Industry Sponsored ID.  This is usually a short identifier. Example: E4412.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicates what site is filling out the assay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E.g. 'DFCI'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protocol and version used for the sequencing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E.g. 'Express Somatic Human WES (Deep Coverage) v1.1'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The library construction kit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E.g. 'Hyper Prep ICE Exome Express: 1.0'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequencer Model, e.g. HiSeq 2500, NextSeq, NovaSeq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E.g. 'Illumina - HiSeq 2500'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicates if the sequencing was performed paired or single ended.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E.g. 'Paired'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cycles for each sequencing read.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bait set ID.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E.g. 'whole_exome_illumina_coding_v1'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Section 'Samples' of tab 'WES'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String: regex ^C[A-Z0-9]{3}[A-Z0-9]{3}[A-Z0-9]{2}.[0-9]{2}$ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as C????????.??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E.g. 'CTTTP01A1.00'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path to a file on a user's computer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String: date </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of sequencing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag used for quality.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DFCI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illumina - HiSeq 2500</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mount Sinai</t>
   </si>
   <si>
-    <t xml:space="preserve">Sequencing protocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Express Somatic Human WES (Deep Coverage) v1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Library kit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyper Prep ICE Exome Express: 1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sequencer platform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illumina - NextSeq 550</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paired end reads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paired</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bait set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">whole_exome_illumina_coding_v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#skip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samples</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#header</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cimac id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forward fastq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse fastq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sequencing date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quality flag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTTTPP122.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/fwd.1.2.2.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/rev.1.2.2.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTTTPP123.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/fwd.1.2.3.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/rev.1.2.3.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/fwd.1.2.2_2.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/rev.1.2.2_2.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/fwd.1.2.3_2.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/rev.1.2.3_2.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTTTPP124.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/fwd.1.2.4.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/rev.1.2.4.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTTTPP211.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/fwd.2.1.1.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/rev.2.1.1.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTTTPP212.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/fwd.2.1.2.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/rev.2.1.2.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTTTPP213.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/fwd.2.1.3.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/rev.2.1.3.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTTTPP214.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/fwd.2.1.4.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/rev.2.1.4.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTTTPP311.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/fwd.3.1.1.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/rev.3.1.1.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTTTPP312.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/fwd.3.1.2.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/rev.3.1.2.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTTTPP313.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/fwd.3.1.3.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/rev.3.1.3.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTTTPP411.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/fwd.4.1.1.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/rev.4.1.1.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTTTPP412.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/fwd.4.1.2.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/rev.4.1.2.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTTTPP413.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/fwd.4.1.3.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/rev.4.1.3.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTTTPP511.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/fwd.5.1.1.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/rev.5.1.1.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTTTPP512.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/fwd.5.1.2.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/rev.5.1.2.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTTTPP513.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/fwd.5.1.3.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/rev.5.1.3.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTTTPP514.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/fwd.5.1.4.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/rev.5.1.4.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTTTPP515.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/fwd.5.1.5.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/rev.5.1.5.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTTTPP516.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/fwd.5.1.6.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/rev.5.1.6.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTTTPP517.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/fwd.5.1.7.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/local/path/to/rev.5.1.7.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEGEND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legend for tab 'WES'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trial identifier used by lead organization, ie. Center for Experimental Therapeutics Program (CTEP) ID or Industry Sponsored ID.  This is usually a short identifier. Example: E4412.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicates what site is filling out the assay.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E.g. 'DFCI'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protocol and version used for the sequencing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E.g. 'Express Somatic Human WES (Deep Coverage) v1.1'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The library construction kit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E.g. 'Hyper Prep ICE Exome Express: 1.0'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sequencer Model, e.g. HiSeq 2500, NextSeq, NovaSeq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E.g. 'Illumina - HiSeq 2500'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicates if the sequencing was performed paired or single ended.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E.g. 'Paired'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of cycles for each sequencing read.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bait set ID.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E.g. 'whole_exome_illumina_coding_v1'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Section 'Samples' of tab 'WES'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String: regex ^C[A-Z0-9]{3}[A-Z0-9]{3}[A-Z0-9]{2}.[0-9]{2}$ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as C????????.??</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E.g. 'CTTTP01A1.00'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Path to a file on a user's computer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String: date </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of sequencing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flag used for quality.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DFCI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illumina - HiSeq 2500</t>
-  </si>
-  <si>
     <t xml:space="preserve">Somatic Human WES v6</t>
   </si>
   <si>
@@ -606,9 +609,6 @@
   </si>
   <si>
     <t xml:space="preserve">TWIST Dana Farber Custom Panel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MD Anderson</t>
   </si>
   <si>
     <t xml:space="preserve">TWIST</t>
@@ -862,11 +862,11 @@
   </sheetPr>
   <dimension ref="A1:G2013"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.31640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="1" style="0" width="30.7"/>
   </cols>
@@ -891,7 +891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>2</v>
       </c>
@@ -11458,7 +11458,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.31640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.7"/>
   </cols>
@@ -11673,7 +11673,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.31640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.7"/>
   </cols>
@@ -11720,41 +11720,41 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>130</v>
+        <v>6</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>131</v>

--- a/template_examples/wes_fastq_template.xlsx
+++ b/template_examples/wes_fastq_template.xlsx
@@ -149,7 +149,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as C????????.??</t>
+          <t xml:space="preserve">Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as CTTTPPPSS.AA for trial code TTT, participant PPP, sample SS, and aliquot AA.</t>
         </r>
       </text>
     </comment>
@@ -163,7 +163,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Path to a file on a user's computer.
+          <t xml:space="preserve">Path to file, relative to the intake bucket.
 In .gz format</t>
         </r>
       </text>
@@ -178,7 +178,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Path to a file on a user's computer.
+          <t xml:space="preserve">Path to file, relative to the intake bucket.
 In .gz format</t>
         </r>
       </text>
@@ -216,12 +216,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="140">
   <si>
     <t xml:space="preserve">#title</t>
   </si>
   <si>
-    <t xml:space="preserve">Metadata file for wes [fastq]</t>
+    <t xml:space="preserve">Wes [fastq] assay template</t>
   </si>
   <si>
     <t xml:space="preserve">#preamble</t>
@@ -530,7 +530,7 @@
     <t xml:space="preserve">Sequencer Model, e.g. HiSeq 2500, NextSeq, NovaSeq.</t>
   </si>
   <si>
-    <t xml:space="preserve">E.g. 'Illumina - HiSeq 2500'</t>
+    <t xml:space="preserve">E.g. 'Adaptive'</t>
   </si>
   <si>
     <t xml:space="preserve">Indicates if the sequencing was performed paired or single ended.</t>
@@ -557,13 +557,13 @@
     <t xml:space="preserve">String: regex ^C[A-Z0-9]{3}[A-Z0-9]{3}[A-Z0-9]{2}.[0-9]{2}$ </t>
   </si>
   <si>
-    <t xml:space="preserve">Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as C????????.??</t>
+    <t xml:space="preserve">Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as CTTTPPPSS.AA for trial code TTT, participant PPP, sample SS, and aliquot AA.</t>
   </si>
   <si>
     <t xml:space="preserve">E.g. 'CTTTP01A1.00'</t>
   </si>
   <si>
-    <t xml:space="preserve">Path to a file on a user's computer.</t>
+    <t xml:space="preserve">Path to file, relative to the intake bucket.</t>
   </si>
   <si>
     <t xml:space="preserve">String: date </t>
@@ -581,40 +581,55 @@
     <t xml:space="preserve">DFCI</t>
   </si>
   <si>
+    <t xml:space="preserve">Adaptive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mount Sinai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somatic Human WES v6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAPA HyperPrep</t>
+  </si>
+  <si>
     <t xml:space="preserve">Illumina - HiSeq 2500</t>
   </si>
   <si>
-    <t xml:space="preserve">Mount Sinai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somatic Human WES v6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KAPA HyperPrep</t>
+    <t xml:space="preserve">Single</t>
+  </si>
+  <si>
+    <t xml:space="preserve">broad_custom_exome_v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stanford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWIST Custom Panel PN 101042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDT duplex UMI adapters</t>
   </si>
   <si>
     <t xml:space="preserve">Illumina - HiSeq 3000</t>
   </si>
   <si>
-    <t xml:space="preserve">Single</t>
-  </si>
-  <si>
-    <t xml:space="preserve">broad_custom_exome_v1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stanford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDT duplex UMI adapters</t>
-  </si>
-  <si>
     <t xml:space="preserve">TWIST Dana Farber Custom Panel</t>
   </si>
   <si>
     <t xml:space="preserve">TWIST</t>
   </si>
   <si>
+    <t xml:space="preserve">KAPA HyperPrep with IDT duplex UMI adapters</t>
+  </si>
+  <si>
     <t xml:space="preserve">Illumina - HiSeq 4000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agilent SS Human All Exon V4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broad</t>
   </si>
   <si>
     <t xml:space="preserve">Illumina - NovaSeq 6000</t>
@@ -771,11 +786,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -860,13 +875,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2013"/>
+  <dimension ref="A1:G2012"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13:G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="1" style="0" width="30.7"/>
   </cols>
@@ -880,7 +895,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
@@ -902,7 +917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>2</v>
       </c>
@@ -913,7 +928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>2</v>
       </c>
@@ -924,7 +939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>2</v>
       </c>
@@ -935,7 +950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>2</v>
       </c>
@@ -946,7 +961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>2</v>
       </c>
@@ -957,7 +972,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>2</v>
       </c>
@@ -1008,22 +1023,22 @@
       <c r="A13" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" s="5" t="n">
         <v>40179</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1031,22 +1046,22 @@
       <c r="A14" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="4" t="n">
+      <c r="F14" s="5" t="n">
         <v>40179</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1054,22 +1069,22 @@
       <c r="A15" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="F15" s="5" t="n">
         <v>40179</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1077,22 +1092,22 @@
       <c r="A16" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="4" t="n">
+      <c r="F16" s="5" t="n">
         <v>40179</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,22 +1115,22 @@
       <c r="A17" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="4" t="n">
+      <c r="F17" s="5" t="n">
         <v>40179</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1123,22 +1138,22 @@
       <c r="A18" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="4" t="n">
+      <c r="F18" s="5" t="n">
         <v>40179</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1146,22 +1161,22 @@
       <c r="A19" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="4" t="n">
+      <c r="F19" s="5" t="n">
         <v>40179</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1169,22 +1184,22 @@
       <c r="A20" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="4" t="n">
+      <c r="F20" s="5" t="n">
         <v>40179</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1192,22 +1207,22 @@
       <c r="A21" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="4" t="n">
+      <c r="F21" s="5" t="n">
         <v>40179</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1215,22 +1230,22 @@
       <c r="A22" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="4" t="n">
+      <c r="F22" s="5" t="n">
         <v>40179</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,22 +1253,22 @@
       <c r="A23" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="4" t="n">
+      <c r="F23" s="5" t="n">
         <v>40179</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="G23" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1261,22 +1276,22 @@
       <c r="A24" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="4" t="n">
+      <c r="F24" s="5" t="n">
         <v>40179</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="G24" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1284,22 +1299,22 @@
       <c r="A25" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="4" t="n">
+      <c r="F25" s="5" t="n">
         <v>40179</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="G25" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1307,22 +1322,22 @@
       <c r="A26" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="4" t="n">
+      <c r="F26" s="5" t="n">
         <v>40179</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G26" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1330,22 +1345,22 @@
       <c r="A27" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="4" t="n">
+      <c r="F27" s="5" t="n">
         <v>40179</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="G27" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1353,22 +1368,22 @@
       <c r="A28" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="4" t="n">
+      <c r="F28" s="5" t="n">
         <v>40179</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="G28" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1376,22 +1391,22 @@
       <c r="A29" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="5" t="n">
+      <c r="C29" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="4" t="n">
+      <c r="F29" s="5" t="n">
         <v>40179</v>
       </c>
-      <c r="G29" s="5" t="n">
+      <c r="G29" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1399,22 +1414,22 @@
       <c r="A30" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="5" t="n">
+      <c r="C30" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F30" s="4" t="n">
+      <c r="F30" s="5" t="n">
         <v>40179</v>
       </c>
-      <c r="G30" s="5" t="n">
+      <c r="G30" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1422,22 +1437,22 @@
       <c r="A31" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="5" t="n">
+      <c r="C31" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="4" t="n">
+      <c r="F31" s="5" t="n">
         <v>40179</v>
       </c>
-      <c r="G31" s="5" t="n">
+      <c r="G31" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1445,22 +1460,22 @@
       <c r="A32" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="5" t="n">
+      <c r="C32" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F32" s="4" t="n">
+      <c r="F32" s="5" t="n">
         <v>40179</v>
       </c>
-      <c r="G32" s="5" t="n">
+      <c r="G32" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1468,22 +1483,22 @@
       <c r="A33" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="5" t="n">
+      <c r="C33" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F33" s="4" t="n">
+      <c r="F33" s="5" t="n">
         <v>40179</v>
       </c>
-      <c r="G33" s="5" t="n">
+      <c r="G33" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1491,36 +1506,36 @@
       <c r="A34" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="5" t="n">
+      <c r="C34" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F34" s="4" t="n">
+      <c r="F34" s="5" t="n">
         <v>40179</v>
       </c>
-      <c r="G34" s="5" t="n">
+      <c r="G34" s="4" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>27</v>
       </c>
@@ -11397,11 +11412,6 @@
     </row>
     <row r="2012" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2012" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2013" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2013" s="0" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11411,6 +11421,10 @@
     <mergeCell ref="B11:G11"/>
   </mergeCells>
   <dataValidations count="6">
+    <dataValidation allowBlank="true" error="Please enter date in format mm/dd/yyyy" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F35:F2012" type="custom">
+      <formula1>AND(ISNUMBER(F13:F2012),LEFT(CELL("format",F13:F2012),1)="D")</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="false" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C3" type="list">
       <formula1>"DFCI,Mount Sinai,Stanford,MD Anderson"</formula1>
       <formula2>0</formula2>
@@ -11429,10 +11443,6 @@
     </dataValidation>
     <dataValidation allowBlank="false" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C7" type="list">
       <formula1>"Paired,Single"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" error="Please enter date in format mm/dd/yyyy" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F38:F2013" type="custom">
-      <formula1>AND(ISNUMBER(F27:F2026),LEFT(CELL("format",F27:F2026),1)="D")</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -11455,10 +11465,10 @@
   <dimension ref="B1:E17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B13:G34 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.7"/>
   </cols>
@@ -11667,13 +11677,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:G7"/>
+  <dimension ref="B1:G8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B13:G34 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.7"/>
   </cols>
@@ -11742,35 +11752,61 @@
       <c r="B4" s="0" t="s">
         <v>128</v>
       </c>
+      <c r="C4" s="0" t="s">
+        <v>129</v>
+      </c>
       <c r="D4" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C5" s="0" t="s">
+        <v>133</v>
+      </c>
       <c r="D5" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>132</v>
+        <v>12</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>133</v>
+      </c>
       <c r="E6" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>137</v>
+      </c>
       <c r="E7" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="0" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/template_examples/wes_fastq_template.xlsx
+++ b/template_examples/wes_fastq_template.xlsx
@@ -216,7 +216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="143">
   <si>
     <t xml:space="preserve">#title</t>
   </si>
@@ -492,6 +492,15 @@
   </si>
   <si>
     <t xml:space="preserve">/local/path/to/rev.5.1.7.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTTTPP518.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/fwd.5.1.8.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/local/path/to/rev.5.1.8.fastq.gz</t>
   </si>
   <si>
     <t xml:space="preserve">LEGEND</t>
@@ -877,11 +886,11 @@
   </sheetPr>
   <dimension ref="A1:G2012"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13:G34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36:G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.30859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="1" style="0" width="30.7"/>
   </cols>
@@ -1525,15 +1534,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>40179</v>
+      </c>
+      <c r="G35" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>27</v>
       </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
@@ -11421,7 +11454,7 @@
     <mergeCell ref="B11:G11"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation allowBlank="true" error="Please enter date in format mm/dd/yyyy" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F35:F2012" type="custom">
+    <dataValidation allowBlank="true" error="Please enter date in format mm/dd/yyyy" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F37:F2012" type="custom">
       <formula1>AND(ISNUMBER(F13:F2012),LEFT(CELL("format",F13:F2012),1)="D")</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -11465,22 +11498,22 @@
   <dimension ref="B1:E17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B13:G34 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B36:G36 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.30859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11488,10 +11521,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11499,13 +11532,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11513,13 +11546,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11527,13 +11560,13 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11541,13 +11574,13 @@
         <v>11</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11555,13 +11588,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11569,10 +11602,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11580,18 +11613,18 @@
         <v>16</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11599,13 +11632,13 @@
         <v>21</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11613,7 +11646,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11621,10 +11654,10 @@
         <v>23</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11632,10 +11665,10 @@
         <v>24</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11643,10 +11676,10 @@
         <v>25</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11654,10 +11687,10 @@
         <v>26</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -11680,10 +11713,10 @@
   <dimension ref="B1:G8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B13:G34 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B36:G36 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.30859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.7"/>
   </cols>
@@ -11710,7 +11743,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>8</v>
@@ -11719,7 +11752,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>14</v>
@@ -11730,39 +11763,39 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11770,43 +11803,43 @@
         <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E8" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/template_examples/wes_fastq_template.xlsx
+++ b/template_examples/wes_fastq_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\jamesp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\jamesp\cidc-schemas\template_examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E50FF02-DCC0-4066-A670-028F6F7A4D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC79326-A447-422A-85CC-24A19AA2E6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21090" yWindow="1200" windowWidth="20355" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WES" sheetId="1" r:id="rId1"/>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="143">
   <si>
     <t>LEGEND</t>
   </si>
@@ -431,6 +431,207 @@
   </si>
   <si>
     <t>test_prism_trial_id</t>
+  </si>
+  <si>
+    <t>CTTTPP122.00</t>
+  </si>
+  <si>
+    <t>/local/path/to/fwd.1.2.2.fastq.gz</t>
+  </si>
+  <si>
+    <t>/local/path/to/rev.1.2.2.fastq.gz</t>
+  </si>
+  <si>
+    <t>CTTTPP123.00</t>
+  </si>
+  <si>
+    <t>/local/path/to/fwd.1.2.3.fastq.gz</t>
+  </si>
+  <si>
+    <t>/local/path/to/rev.1.2.3.fastq.gz</t>
+  </si>
+  <si>
+    <t>/local/path/to/fwd.1.2.2_2.fastq.gz</t>
+  </si>
+  <si>
+    <t>/local/path/to/rev.1.2.2_2.fastq.gz</t>
+  </si>
+  <si>
+    <t>/local/path/to/fwd.1.2.3_2.fastq.gz</t>
+  </si>
+  <si>
+    <t>/local/path/to/rev.1.2.3_2.fastq.gz</t>
+  </si>
+  <si>
+    <t>CTTTPP124.00</t>
+  </si>
+  <si>
+    <t>/local/path/to/fwd.1.2.4.fastq.gz</t>
+  </si>
+  <si>
+    <t>/local/path/to/rev.1.2.4.fastq.gz</t>
+  </si>
+  <si>
+    <t>CTTTPP211.00</t>
+  </si>
+  <si>
+    <t>/local/path/to/fwd.2.1.1.fastq.gz</t>
+  </si>
+  <si>
+    <t>/local/path/to/rev.2.1.1.fastq.gz</t>
+  </si>
+  <si>
+    <t>CTTTPP212.00</t>
+  </si>
+  <si>
+    <t>/local/path/to/fwd.2.1.2.fastq.gz</t>
+  </si>
+  <si>
+    <t>/local/path/to/rev.2.1.2.fastq.gz</t>
+  </si>
+  <si>
+    <t>CTTTPP213.00</t>
+  </si>
+  <si>
+    <t>/local/path/to/fwd.2.1.3.fastq.gz</t>
+  </si>
+  <si>
+    <t>/local/path/to/rev.2.1.3.fastq.gz</t>
+  </si>
+  <si>
+    <t>CTTTPP214.00</t>
+  </si>
+  <si>
+    <t>/local/path/to/fwd.2.1.4.fastq.gz</t>
+  </si>
+  <si>
+    <t>/local/path/to/rev.2.1.4.fastq.gz</t>
+  </si>
+  <si>
+    <t>CTTTPP311.00</t>
+  </si>
+  <si>
+    <t>/local/path/to/fwd.3.1.1.fastq.gz</t>
+  </si>
+  <si>
+    <t>/local/path/to/rev.3.1.1.fastq.gz</t>
+  </si>
+  <si>
+    <t>CTTTPP312.00</t>
+  </si>
+  <si>
+    <t>/local/path/to/fwd.3.1.2.fastq.gz</t>
+  </si>
+  <si>
+    <t>/local/path/to/rev.3.1.2.fastq.gz</t>
+  </si>
+  <si>
+    <t>CTTTPP313.00</t>
+  </si>
+  <si>
+    <t>/local/path/to/fwd.3.1.3.fastq.gz</t>
+  </si>
+  <si>
+    <t>/local/path/to/rev.3.1.3.fastq.gz</t>
+  </si>
+  <si>
+    <t>CTTTPP411.00</t>
+  </si>
+  <si>
+    <t>/local/path/to/fwd.4.1.1.fastq.gz</t>
+  </si>
+  <si>
+    <t>/local/path/to/rev.4.1.1.fastq.gz</t>
+  </si>
+  <si>
+    <t>CTTTPP412.00</t>
+  </si>
+  <si>
+    <t>/local/path/to/fwd.4.1.2.fastq.gz</t>
+  </si>
+  <si>
+    <t>/local/path/to/rev.4.1.2.fastq.gz</t>
+  </si>
+  <si>
+    <t>CTTTPP413.00</t>
+  </si>
+  <si>
+    <t>/local/path/to/fwd.4.1.3.fastq.gz</t>
+  </si>
+  <si>
+    <t>/local/path/to/rev.4.1.3.fastq.gz</t>
+  </si>
+  <si>
+    <t>CTTTPP511.00</t>
+  </si>
+  <si>
+    <t>/local/path/to/fwd.5.1.1.fastq.gz</t>
+  </si>
+  <si>
+    <t>/local/path/to/rev.5.1.1.fastq.gz</t>
+  </si>
+  <si>
+    <t>CTTTPP512.00</t>
+  </si>
+  <si>
+    <t>/local/path/to/fwd.5.1.2.fastq.gz</t>
+  </si>
+  <si>
+    <t>/local/path/to/rev.5.1.2.fastq.gz</t>
+  </si>
+  <si>
+    <t>CTTTPP513.00</t>
+  </si>
+  <si>
+    <t>/local/path/to/fwd.5.1.3.fastq.gz</t>
+  </si>
+  <si>
+    <t>/local/path/to/rev.5.1.3.fastq.gz</t>
+  </si>
+  <si>
+    <t>CTTTPP514.00</t>
+  </si>
+  <si>
+    <t>/local/path/to/fwd.5.1.4.fastq.gz</t>
+  </si>
+  <si>
+    <t>/local/path/to/rev.5.1.4.fastq.gz</t>
+  </si>
+  <si>
+    <t>CTTTPP515.00</t>
+  </si>
+  <si>
+    <t>/local/path/to/fwd.5.1.5.fastq.gz</t>
+  </si>
+  <si>
+    <t>/local/path/to/rev.5.1.5.fastq.gz</t>
+  </si>
+  <si>
+    <t>CTTTPP516.00</t>
+  </si>
+  <si>
+    <t>/local/path/to/fwd.5.1.6.fastq.gz</t>
+  </si>
+  <si>
+    <t>/local/path/to/rev.5.1.6.fastq.gz</t>
+  </si>
+  <si>
+    <t>CTTTPP517.00</t>
+  </si>
+  <si>
+    <t>/local/path/to/fwd.5.1.7.fastq.gz</t>
+  </si>
+  <si>
+    <t>/local/path/to/rev.5.1.7.fastq.gz</t>
+  </si>
+  <si>
+    <t>CTTTPP518.00</t>
+  </si>
+  <si>
+    <t>/local/path/to/fwd.5.1.8.fastq.gz</t>
+  </si>
+  <si>
+    <t>/local/path/to/rev.5.1.8.fastq.gz</t>
   </si>
 </sst>
 </file>
@@ -544,7 +745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -558,12 +759,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -905,7 +1107,7 @@
   <dimension ref="A1:G2012"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,10 +1119,10 @@
       <c r="A1" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="5"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -929,7 +1131,7 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>75</v>
       </c>
     </row>
@@ -940,7 +1142,7 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -951,7 +1153,7 @@
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -962,7 +1164,7 @@
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -973,7 +1175,7 @@
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>58</v>
       </c>
     </row>
@@ -984,7 +1186,7 @@
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -995,7 +1197,7 @@
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>100</v>
       </c>
     </row>
@@ -1006,7 +1208,7 @@
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1014,14 +1216,14 @@
       <c r="A11" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1050,178 +1252,592 @@
       <c r="A13" t="s">
         <v>74</v>
       </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7">
+        <v>40179</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>74</v>
       </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="7">
+        <v>40179</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>74</v>
       </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="7">
+        <v>40179</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7">
+        <v>40179</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="7">
+        <v>40179</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="7">
+        <v>40179</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="7">
+        <v>40179</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="7">
+        <v>40179</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="7">
+        <v>40179</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="7">
+        <v>40179</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="7">
+        <v>40179</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="7">
+        <v>40179</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="7">
+        <v>40179</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="7">
+        <v>40179</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" s="7">
+        <v>40179</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="7">
+        <v>40179</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" s="7">
+        <v>40179</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" s="7">
+        <v>40179</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" t="s">
+        <v>130</v>
+      </c>
+      <c r="F31" s="7">
+        <v>40179</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" s="7">
+        <v>40179</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" t="s">
+        <v>136</v>
+      </c>
+      <c r="F33" s="7">
+        <v>40179</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>138</v>
+      </c>
+      <c r="E34" t="s">
+        <v>139</v>
+      </c>
+      <c r="F34" s="7">
+        <v>40179</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>141</v>
+      </c>
+      <c r="E35" t="s">
+        <v>142</v>
+      </c>
+      <c r="F35" s="7">
+        <v>40179</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>74</v>
       </c>
@@ -11052,8 +11668,8 @@
     <mergeCell ref="B11:G11"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="F13:F2012" xr:uid="{00000000-0002-0000-0000-000006000000}">
-      <formula1>AND(ISNUMBER(F13:F2012),LEFT(CELL("format",F13:F2012),1)="D")</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="F36:F2012" xr:uid="{00000000-0002-0000-0000-000006000000}">
+      <formula1>AND(ISNUMBER(F36:F2035),LEFT(CELL("format",F36:F2035),1)="D")</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{88498756-4ABE-4DD3-A8D7-6554C538A6E2}">
       <formula1>"Paired,Single"</formula1>
